--- a/data/trans_dic/P39A1_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P39A1_2023-Edad-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>69,86; 83,96</t>
+          <t>69,07; 83,54</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>68,69; 82,17</t>
+          <t>69,79; 82,2</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>70,46; 80,98</t>
+          <t>71,39; 81,45</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>65,83; 77,39</t>
+          <t>65,45; 76,96</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>60,23; 72,56</t>
+          <t>59,69; 72,68</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>64,89; 73,69</t>
+          <t>64,69; 73,41</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>67,67; 75,26</t>
+          <t>67,07; 75,28</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>61,88; 68,5</t>
+          <t>61,43; 68,43</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>65,67; 70,75</t>
+          <t>65,57; 70,92</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>68,17; 78,49</t>
+          <t>67,87; 79,35</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>60,56; 66,85</t>
+          <t>60,67; 66,95</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>65,39; 72,52</t>
+          <t>65,2; 72,05</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>66,74; 73,85</t>
+          <t>66,48; 73,71</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>68,57; 74,7</t>
+          <t>68,97; 74,64</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>68,58; 73,43</t>
+          <t>68,59; 73,37</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>67,16; 73,27</t>
+          <t>67,22; 73,33</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>67,74; 82,64</t>
+          <t>67,91; 81,6</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>68,72; 77,84</t>
+          <t>68,86; 78,42</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>70,06; 73,84</t>
+          <t>70,09; 74,18</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>67,34; 72,33</t>
+          <t>67,33; 72,25</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>69,16; 72,42</t>
+          <t>69,25; 72,49</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P39A1_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P39A1_2023-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>69,07; 83,54</t>
+          <t>69,86; 83,96</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>69,79; 82,2</t>
+          <t>68,69; 82,17</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>71,39; 81,45</t>
+          <t>70,46; 80,98</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>65,45; 76,96</t>
+          <t>65,83; 77,39</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>59,69; 72,68</t>
+          <t>60,23; 72,56</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>64,69; 73,41</t>
+          <t>64,89; 73,69</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>67,07; 75,28</t>
+          <t>67,67; 75,26</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>61,43; 68,43</t>
+          <t>61,88; 68,5</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>65,57; 70,92</t>
+          <t>65,67; 70,75</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>67,87; 79,35</t>
+          <t>68,17; 78,49</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>60,67; 66,95</t>
+          <t>60,56; 66,85</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>65,2; 72,05</t>
+          <t>65,39; 72,52</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>66,48; 73,71</t>
+          <t>66,74; 73,85</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>68,97; 74,64</t>
+          <t>68,57; 74,7</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>68,59; 73,37</t>
+          <t>68,58; 73,43</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>67,22; 73,33</t>
+          <t>67,16; 73,27</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>67,91; 81,6</t>
+          <t>67,74; 82,64</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>68,86; 78,42</t>
+          <t>68,72; 77,84</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>70,09; 74,18</t>
+          <t>70,06; 73,84</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>67,33; 72,25</t>
+          <t>67,34; 72,33</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>69,25; 72,49</t>
+          <t>69,16; 72,42</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P39A1_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P39A1_2023-Edad-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>77,43%</t>
+          <t>77,73%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>76,35%</t>
+          <t>76,13%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>76,91%</t>
+          <t>77,04%</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>69,86; 83,96</t>
+          <t>69,89; 84,66</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>68,69; 82,17</t>
+          <t>68,45; 82,2</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>70,46; 80,98</t>
+          <t>69,99; 81,36</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>71,96%</t>
+          <t>71,41%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>67,81%</t>
+          <t>59,63%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>69,72%</t>
+          <t>64,92%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>65,83; 77,39</t>
+          <t>64,92; 77,04</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>60,23; 72,56</t>
+          <t>37,43; 70,99</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>64,89; 73,69</t>
+          <t>49,08; 71,91</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>71,54%</t>
+          <t>70,95%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>65,3%</t>
+          <t>64,86%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>68,38%</t>
+          <t>67,92%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>67,67; 75,26</t>
+          <t>67,05; 74,75</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>61,88; 68,5</t>
+          <t>61,3; 68,04</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>65,67; 70,75</t>
+          <t>65,09; 70,27</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>72,41%</t>
+          <t>78,18%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>63,77%</t>
+          <t>63,49%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>68,05%</t>
+          <t>71,87%</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>68,17; 78,49</t>
+          <t>68,2; 89,88</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>60,56; 66,85</t>
+          <t>60,43; 66,57</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>65,39; 72,52</t>
+          <t>65,38; 83,74</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>70,26%</t>
+          <t>69,69%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>71,86%</t>
+          <t>71,49%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>71,05%</t>
+          <t>70,56%</t>
         </is>
       </c>
     </row>
@@ -779,24 +779,24 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>66,74; 73,85</t>
+          <t>66,11; 73,29</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>68,57; 74,7</t>
+          <t>68,15; 74,39</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>68,58; 73,43</t>
+          <t>68,01; 72,97</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -806,17 +806,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>70,23%</t>
+          <t>68,6%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>72,7%</t>
+          <t>81,25%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>71,69%</t>
+          <t>76,58%</t>
         </is>
       </c>
     </row>
@@ -829,24 +829,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>67,16; 73,27</t>
+          <t>64,27; 72,86</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>67,74; 82,64</t>
+          <t>69,67; 92,79</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>68,72; 77,84</t>
+          <t>69,05; 88,71</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -856,17 +856,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>71,92%</t>
+          <t>71,3%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>69,28%</t>
+          <t>66,45%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>70,53%</t>
+          <t>68,46%</t>
         </is>
       </c>
     </row>
@@ -879,29 +879,79 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>70,06; 73,84</t>
+          <t>66,64; 75,75</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>67,34; 72,33</t>
+          <t>62,71; 69,82</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>69,16; 72,42</t>
+          <t>65,7; 71,2</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>73,24%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>68,77%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>70,97%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>70,56; 79,7</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>64,64; 74,45</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>68,27; 74,87</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -909,6 +959,7 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P39A1_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P39A1_2023-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>69,89; 84,66</t>
+          <t>69,87; 84,4</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>68,45; 82,2</t>
+          <t>69,01; 82,11</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>69,99; 81,36</t>
+          <t>72,29; 81,88</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>64,92; 77,04</t>
+          <t>65,69; 76,93</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>37,43; 70,99</t>
+          <t>35,56; 71,61</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>49,08; 71,91</t>
+          <t>47,93; 71,8</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>67,05; 74,75</t>
+          <t>66,55; 75,03</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>61,3; 68,04</t>
+          <t>60,91; 67,89</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>65,09; 70,27</t>
+          <t>65,22; 70,48</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>68,2; 89,88</t>
+          <t>67,99; 90,3</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>60,43; 66,57</t>
+          <t>60,36; 66,43</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>65,38; 83,74</t>
+          <t>65,19; 81,52</t>
         </is>
       </c>
     </row>
@@ -779,17 +780,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>66,11; 73,29</t>
+          <t>65,63; 73,39</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>68,15; 74,39</t>
+          <t>68,59; 74,23</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>68,01; 72,97</t>
+          <t>68,09; 72,92</t>
         </is>
       </c>
     </row>
@@ -829,17 +830,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>64,27; 72,86</t>
+          <t>64,3; 72,52</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>69,67; 92,79</t>
+          <t>69,51; 93,78</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>69,05; 88,71</t>
+          <t>69,07; 89,83</t>
         </is>
       </c>
     </row>
@@ -879,17 +880,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>66,64; 75,75</t>
+          <t>66,19; 75,89</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>62,71; 69,82</t>
+          <t>62,73; 70,43</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>65,7; 71,2</t>
+          <t>65,44; 70,99</t>
         </is>
       </c>
     </row>
@@ -929,17 +930,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>70,56; 79,7</t>
+          <t>70,24; 80,19</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>64,64; 74,45</t>
+          <t>65,0; 74,24</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>68,27; 74,87</t>
+          <t>68,27; 74,97</t>
         </is>
       </c>
     </row>
@@ -964,4 +965,684 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que sí diría que estar con dolor o malestar, mareado o a punto de desmayarse es un síntoma de que a alguien le está dando un ataque al corazón</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>276828</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>208810</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>485638</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>248849; 300577</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>189281; 225187</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>455718; 516169</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>286</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>484</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>278646</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>285738</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>564385</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>256304; 300169</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>170384; 343162</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>416693; 624168</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>358</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>858</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>365218</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>331675</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>696893</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>342560; 386232</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>311493; 347188</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>669249; 723235</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>420</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>672</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>1092</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>657480</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>402259</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>1059739</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>571779; 759419</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>382422; 420894</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>961232; 1202037</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>422</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>631</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>1053</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>365777</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>357419</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>723196</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>344479; 385196</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>342932; 371132</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>697847; 747303</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>355</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>528</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>883</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>228203</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>462934</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>691137</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>213904; 241273</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>396070; 534364</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>623308; 810728</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>269</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>443</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>712</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>168844</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>222322</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>391167</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>156735; 179710</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>209892; 235649</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>373891; 405609</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>2135</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>3197</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>5332</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>2340996</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>2271157</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>4612153</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>2245141; 2563337</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>2146870; 2451928</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>4437255; 4872637</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>